--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종연\Desktop\생기부 유사도 검사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BBAF6F-31DA-45AD-939A-C5C34D893B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC926CCF-D509-4B8B-8286-534A045604CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="과학탐구실험" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <r>
       <t xml:space="preserve">바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. </t>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>세계의 바이올리니스트라는 엄청난 예술적 진로를 가지고 있는 학생으로 실험에 매우 열정적인 몰입 태도를 나타냄. 뉴턴의 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 매우 큰 역할을 맡음. 같은 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. 자신의 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 크게 기여함. 어떤 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 반짝이는 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 모든 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. 매우매우 실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>도한</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,12 +201,20 @@
     <t>이레</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>바이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계의 바이올리니스트라는 엄청난 예술적 진로를 가지고 있는 학생으로 실험에 매우 열정적인 몰입 태도를 나타냄. 뉴턴의 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 매우 큰 역할을 맡았을 뿐 아니라 같은 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. 자신의 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 크게 기여함. 어떤 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 또한 귀납적 탐구방법을 학습한 뒤 철쭉 관찰을 통해 실제로 적용하는 모습을 보임. 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 반짝이는 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 이 모든 실험 수업 전반에 걸쳐 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 멋진 학생임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -269,6 +273,14 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="HY강B"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -358,7 +370,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,12 +398,41 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -665,764 +706,1499 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="166.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="90.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.25" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="108.75" thickBot="1">
       <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <f>(LENB(B2)-LEN(B2))*2+LEN(B2)</f>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C66" si="0">(LENB(B3)-LEN(B3))*2+LEN(B3)</f>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="96.75" thickBot="1">
+      <c r="A4" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="108.75" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" thickBot="1">
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" thickBot="1">
       <c r="A8" s="8"/>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" thickBot="1">
       <c r="A9" s="7"/>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1">
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" thickBot="1">
       <c r="A12" s="8"/>
       <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" thickBot="1">
       <c r="A16" s="8"/>
       <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" thickBot="1">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" thickBot="1">
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" thickBot="1">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" thickBot="1">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" thickBot="1">
       <c r="A22" s="6"/>
       <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" thickBot="1">
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" thickBot="1">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" thickBot="1">
       <c r="A26" s="6"/>
       <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" thickBot="1">
       <c r="A27" s="7"/>
       <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" thickBot="1">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" thickBot="1">
       <c r="A30" s="6"/>
       <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" thickBot="1">
       <c r="A31" s="7"/>
       <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" thickBot="1">
       <c r="A32" s="8"/>
       <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" thickBot="1">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" thickBot="1">
       <c r="A34" s="6"/>
       <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" thickBot="1">
       <c r="A35" s="7"/>
       <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" thickBot="1">
       <c r="A36" s="8"/>
       <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" thickBot="1">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" thickBot="1">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" thickBot="1">
       <c r="A39" s="7"/>
       <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" thickBot="1">
       <c r="A40" s="8"/>
       <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" thickBot="1">
       <c r="A41" s="7"/>
       <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25" thickBot="1">
       <c r="A42" s="6"/>
       <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.25" thickBot="1">
       <c r="A43" s="7"/>
       <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.25" thickBot="1">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25" thickBot="1">
       <c r="A45" s="7"/>
       <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25" thickBot="1">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.25" thickBot="1">
       <c r="A47" s="7"/>
       <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25" thickBot="1">
       <c r="A48" s="8"/>
       <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.25" thickBot="1">
       <c r="A49" s="7"/>
       <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.25" thickBot="1">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17.25" thickBot="1">
       <c r="A51" s="7"/>
       <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17.25" thickBot="1">
       <c r="A52" s="8"/>
       <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.25" thickBot="1">
       <c r="A53" s="7"/>
       <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17.25" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17.25" thickBot="1">
       <c r="A55" s="7"/>
       <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17.25" thickBot="1">
       <c r="A56" s="8"/>
       <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17.25" thickBot="1">
       <c r="A57" s="7"/>
       <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17.25" thickBot="1">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17.25" thickBot="1">
       <c r="A59" s="7"/>
       <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17.25" thickBot="1">
       <c r="A60" s="8"/>
       <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17.25" thickBot="1">
       <c r="A61" s="7"/>
       <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17.25" thickBot="1">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17.25" thickBot="1">
       <c r="A63" s="7"/>
       <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17.25" thickBot="1">
       <c r="A64" s="8"/>
       <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17.25" thickBot="1">
       <c r="A65" s="7"/>
       <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17.25" thickBot="1">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17.25" thickBot="1">
       <c r="A67" s="7"/>
       <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="9">
+        <f t="shared" ref="C67:C130" si="1">(LENB(B67)-LEN(B67))*2+LEN(B67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17.25" thickBot="1">
       <c r="A68" s="8"/>
       <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17.25" thickBot="1">
       <c r="A69" s="7"/>
       <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17.25" thickBot="1">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17.25" thickBot="1">
       <c r="A71" s="7"/>
       <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17.25" thickBot="1">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.25" thickBot="1">
       <c r="A73" s="7"/>
       <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17.25" thickBot="1">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17.25" thickBot="1">
       <c r="A75" s="7"/>
       <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17.25" thickBot="1">
       <c r="A76" s="8"/>
       <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17.25" thickBot="1">
       <c r="A77" s="7"/>
       <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17.25" thickBot="1">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17.25" thickBot="1">
       <c r="A79" s="7"/>
       <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17.25" thickBot="1">
       <c r="A80" s="8"/>
       <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17.25" thickBot="1">
       <c r="A81" s="7"/>
       <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17.25" thickBot="1">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17.25" thickBot="1">
       <c r="A83" s="7"/>
       <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17.25" thickBot="1">
       <c r="A84" s="8"/>
       <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17.25" thickBot="1">
       <c r="A85" s="7"/>
       <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C85" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17.25" thickBot="1">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17.25" thickBot="1">
       <c r="A87" s="7"/>
       <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17.25" thickBot="1">
       <c r="A88" s="8"/>
       <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17.25" thickBot="1">
       <c r="A89" s="7"/>
       <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C89" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17.25" thickBot="1">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C90" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17.25" thickBot="1">
       <c r="A91" s="7"/>
       <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C91" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17.25" thickBot="1">
       <c r="A92" s="8"/>
       <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C92" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17.25" thickBot="1">
       <c r="A93" s="7"/>
       <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C93" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17.25" thickBot="1">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C94" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17.25" thickBot="1">
       <c r="A95" s="7"/>
       <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C95" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17.25" thickBot="1">
       <c r="A96" s="8"/>
       <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C96" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17.25" thickBot="1">
       <c r="A97" s="7"/>
       <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C97" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17.25" thickBot="1">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17.25" thickBot="1">
       <c r="A99" s="7"/>
       <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C99" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17.25" thickBot="1">
       <c r="A100" s="8"/>
       <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C100" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17.25" thickBot="1">
       <c r="A101" s="7"/>
       <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17.25" thickBot="1">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C102" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17.25" thickBot="1">
       <c r="A103" s="7"/>
       <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C103" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17.25" thickBot="1">
       <c r="A104" s="8"/>
       <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C104" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17.25" thickBot="1">
       <c r="A105" s="7"/>
       <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17.25" thickBot="1">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17.25" thickBot="1">
       <c r="A107" s="7"/>
       <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C107" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17.25" thickBot="1">
       <c r="A108" s="8"/>
       <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C108" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17.25" thickBot="1">
       <c r="A109" s="7"/>
       <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C109" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17.25" thickBot="1">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C110" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17.25" thickBot="1">
       <c r="A111" s="7"/>
       <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C111" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17.25" thickBot="1">
       <c r="A112" s="8"/>
       <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17.25" thickBot="1">
       <c r="A113" s="7"/>
       <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C113" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17.25" thickBot="1">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C114" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17.25" thickBot="1">
       <c r="A115" s="7"/>
       <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C115" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17.25" thickBot="1">
       <c r="A116" s="8"/>
       <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C116" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17.25" thickBot="1">
       <c r="A117" s="7"/>
       <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C117" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17.25" thickBot="1">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C118" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17.25" thickBot="1">
       <c r="A119" s="7"/>
       <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C119" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17.25" thickBot="1">
       <c r="A120" s="8"/>
       <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C120" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17.25" thickBot="1">
       <c r="A121" s="7"/>
       <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C121" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17.25" thickBot="1">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C122" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17.25" thickBot="1">
       <c r="A123" s="7"/>
       <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C123" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17.25" thickBot="1">
       <c r="A124" s="8"/>
       <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C124" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17.25" thickBot="1">
       <c r="A125" s="7"/>
       <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C125" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17.25" thickBot="1">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C126" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17.25" thickBot="1">
       <c r="A127" s="7"/>
       <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C127" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17.25" thickBot="1">
       <c r="A128" s="8"/>
       <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C128" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17.25" thickBot="1">
       <c r="A129" s="7"/>
       <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C129" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17.25" thickBot="1">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C130" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17.25" thickBot="1">
       <c r="A131" s="7"/>
       <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C131" s="9">
+        <f t="shared" ref="C131:C181" si="2">(LENB(B131)-LEN(B131))*2+LEN(B131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17.25" thickBot="1">
       <c r="A132" s="8"/>
       <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C132" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17.25" thickBot="1">
       <c r="A133" s="7"/>
       <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C133" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="17.25" thickBot="1">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C134" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="17.25" thickBot="1">
       <c r="A135" s="7"/>
       <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C135" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="17.25" thickBot="1">
       <c r="A136" s="8"/>
       <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="17.25" thickBot="1">
       <c r="A137" s="7"/>
       <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C137" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="17.25" thickBot="1">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C138" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="17.25" thickBot="1">
       <c r="A139" s="7"/>
       <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C139" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="17.25" thickBot="1">
       <c r="A140" s="8"/>
       <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C140" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="17.25" thickBot="1">
       <c r="A141" s="7"/>
       <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C141" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="17.25" thickBot="1">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C142" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="17.25" thickBot="1">
       <c r="A143" s="7"/>
       <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C143" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="17.25" thickBot="1">
       <c r="A144" s="8"/>
       <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C144" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="17.25" thickBot="1">
       <c r="A145" s="7"/>
       <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C145" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="17.25" thickBot="1">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C146" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="17.25" thickBot="1">
       <c r="A147" s="7"/>
       <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C147" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="17.25" thickBot="1">
       <c r="A148" s="8"/>
       <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C148" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="17.25" thickBot="1">
       <c r="A149" s="7"/>
       <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C149" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="17.25" thickBot="1">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C150" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="17.25" thickBot="1">
       <c r="A151" s="7"/>
       <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C151" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="17.25" thickBot="1">
       <c r="A152" s="8"/>
       <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C152" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="17.25" thickBot="1">
       <c r="A153" s="7"/>
       <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C153" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="17.25" thickBot="1">
       <c r="A154" s="6"/>
       <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C154" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="17.25" thickBot="1">
       <c r="A155" s="7"/>
       <c r="B155" s="3"/>
-    </row>
-    <row r="156" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C155" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="17.25" thickBot="1">
       <c r="A156" s="8"/>
       <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C156" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="17.25" thickBot="1">
       <c r="A157" s="7"/>
       <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C157" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="17.25" thickBot="1">
       <c r="A158" s="6"/>
       <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C158" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="17.25" thickBot="1">
       <c r="A159" s="7"/>
       <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C159" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="17.25" thickBot="1">
       <c r="A160" s="8"/>
       <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C160" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="17.25" thickBot="1">
       <c r="A161" s="7"/>
       <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C161" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="17.25" thickBot="1">
       <c r="A162" s="6"/>
       <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C162" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="17.25" thickBot="1">
       <c r="A163" s="7"/>
       <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C163" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="17.25" thickBot="1">
       <c r="A164" s="8"/>
       <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C164" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="17.25" thickBot="1">
       <c r="A165" s="7"/>
       <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C165" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="17.25" thickBot="1">
       <c r="A166" s="6"/>
       <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C166" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="17.25" thickBot="1">
       <c r="A167" s="7"/>
       <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C167" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="17.25" thickBot="1">
       <c r="A168" s="8"/>
       <c r="B168" s="3"/>
-    </row>
-    <row r="169" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C168" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="17.25" thickBot="1">
       <c r="A169" s="7"/>
       <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C169" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="17.25" thickBot="1">
       <c r="A170" s="6"/>
       <c r="B170" s="3"/>
-    </row>
-    <row r="171" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C170" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="17.25" thickBot="1">
       <c r="A171" s="7"/>
       <c r="B171" s="3"/>
-    </row>
-    <row r="172" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C171" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="17.25" thickBot="1">
       <c r="A172" s="8"/>
       <c r="B172" s="3"/>
-    </row>
-    <row r="173" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C172" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="17.25" thickBot="1">
       <c r="A173" s="7"/>
       <c r="B173" s="3"/>
-    </row>
-    <row r="174" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C173" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="17.25" thickBot="1">
       <c r="A174" s="6"/>
       <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C174" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="17.25" thickBot="1">
       <c r="A175" s="7"/>
       <c r="B175" s="3"/>
-    </row>
-    <row r="176" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C175" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="17.25" thickBot="1">
       <c r="A176" s="8"/>
       <c r="B176" s="3"/>
-    </row>
-    <row r="177" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C176" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="17.25" thickBot="1">
       <c r="A177" s="7"/>
       <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C177" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="17.25" thickBot="1">
       <c r="A178" s="6"/>
       <c r="B178" s="3"/>
-    </row>
-    <row r="179" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C178" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="17.25" thickBot="1">
       <c r="A179" s="7"/>
       <c r="B179" s="3"/>
-    </row>
-    <row r="180" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C179" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="17.25" thickBot="1">
       <c r="A180" s="8"/>
       <c r="B180" s="3"/>
-    </row>
-    <row r="181" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C180" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="17.25" thickBot="1">
       <c r="A181" s="7"/>
       <c r="B181" s="3"/>
+      <c r="C181" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C181">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>1000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>1200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종연\Desktop\생기부 유사도 검사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC926CCF-D509-4B8B-8286-534A045604CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3865085-D9A6-484E-B22A-F40CA9AB8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,27 +186,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>도한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이레</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>바이트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>세계의 바이올리니스트라는 엄청난 예술적 진로를 가지고 있는 학생으로 실험에 매우 열정적인 몰입 태도를 나타냄. 뉴턴의 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 매우 큰 역할을 맡았을 뿐 아니라 같은 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. 자신의 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 크게 기여함. 어떤 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 또한 귀납적 탐구방법을 학습한 뒤 철쭉 관찰을 통해 실제로 적용하는 모습을 보임. 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 반짝이는 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 이 모든 실험 수업 전반에 걸쳐 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 멋진 학생임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파파폴스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마마레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베베도스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅팬다스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -708,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -727,12 +727,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="108.75" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="3" spans="1:3" ht="108.75" thickBot="1">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="4" spans="1:3" ht="96.75" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="5" spans="1:3" ht="108.75" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
@@ -2205,20 +2205,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c9cbe2e5-a435-4d73-9435-92f6be33eed1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c9cbe2e5-a435-4d73-9435-92f6be33eed1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2405,6 +2405,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0725741F-8288-43CE-A1E9-290E35172065}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405FD2EC-27D7-42CD-A595-B97B9FD36500}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2417,14 +2425,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0725741F-8288-43CE-A1E9-290E35172065}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종연\Desktop\생기부 유사도 검사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3865085-D9A6-484E-B22A-F40CA9AB8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EA33C9-6AED-43BC-A56D-23B32D1B735B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -747,11 +747,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C66" si="0">(LENB(B3)-LEN(B3))*2+LEN(B3)</f>
-        <v>1377</v>
+        <f>(LENB(B3)-LEN(B3))*2+LEN(B3)</f>
+        <v>1459</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="96.75" thickBot="1">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="0"/>
+        <f>(LENB(B4)-LEN(B4))*2+LEN(B4)</f>
         <v>1295</v>
       </c>
     </row>
@@ -771,18 +771,18 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>1459</v>
+        <f>(LENB(B5)-LEN(B5))*2+LEN(B5)</f>
+        <v>1377</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9">
-        <f t="shared" si="0"/>
+        <f>(LENB(B6)-LEN(B6))*2+LEN(B6)</f>
         <v>0</v>
       </c>
     </row>
@@ -790,7 +790,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C66" si="0">(LENB(B7)-LEN(B7))*2+LEN(B7)</f>
         <v>0</v>
       </c>
     </row>
@@ -2205,20 +2205,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c9cbe2e5-a435-4d73-9435-92f6be33eed1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c9cbe2e5-a435-4d73-9435-92f6be33eed1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2405,14 +2405,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0725741F-8288-43CE-A1E9-290E35172065}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405FD2EC-27D7-42CD-A595-B97B9FD36500}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2425,6 +2417,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0725741F-8288-43CE-A1E9-290E35172065}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종연\Desktop\생기부 유사도 검사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EA33C9-6AED-43BC-A56D-23B32D1B735B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D4D9B-8106-4F07-ACC0-00CA9A2892C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="과학탐구실험" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <r>
       <t xml:space="preserve">바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. </t>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>세특 전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 큰 역할을 맡음. 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. 실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -207,6 +203,149 @@
   </si>
   <si>
     <t>빅팬다스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일례로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 그 원리를 알기 위해 전문가의 보고서를 참고하여 탐구하는 모습을 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 과정에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">특히 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">또한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이에 그치지 않고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이처럼 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 큰 역할을 맡음. 조원들의 의견을 수렴하여 공감 능력을 바탕으로 이끌어가는 리더십을 나타냄. 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. 실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -709,13 +848,13 @@
   <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -727,48 +866,48 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="108.75" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="132.75" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9">
         <f>(LENB(B2)-LEN(B2))*2+LEN(B2)</f>
-        <v>1377</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="108.75" thickBot="1">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9">
         <f>(LENB(B3)-LEN(B3))*2+LEN(B3)</f>
         <v>1459</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="96.75" thickBot="1">
+    <row r="4" spans="1:3" ht="120.75" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9">
         <f>(LENB(B4)-LEN(B4))*2+LEN(B4)</f>
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="108.75" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -790,7 +929,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9">
-        <f t="shared" ref="C3:C66" si="0">(LENB(B7)-LEN(B7))*2+LEN(B7)</f>
+        <f t="shared" ref="C7:C66" si="0">(LENB(B7)-LEN(B7))*2+LEN(B7)</f>
         <v>0</v>
       </c>
     </row>
@@ -2205,20 +2344,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c9cbe2e5-a435-4d73-9435-92f6be33eed1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c9cbe2e5-a435-4d73-9435-92f6be33eed1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2405,6 +2544,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0725741F-8288-43CE-A1E9-290E35172065}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405FD2EC-27D7-42CD-A595-B97B9FD36500}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2417,14 +2564,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0725741F-8288-43CE-A1E9-290E35172065}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종연\Desktop\생기부 유사도 검사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D4D9B-8106-4F07-ACC0-00CA9A2892C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A5169-17F0-4CA1-864B-D7A8BD4983D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,146 +206,146 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">일례로 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 그 원리를 알기 위해 전문가의 보고서를 참고하여 탐구하는 모습을 보임. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이 과정에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">특히 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">또한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이에 그치지 않고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이처럼 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
-    </r>
+    <t>바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 큰 역할을 맡음. 조원들의 의견을 수렴하여 공감 능력을 바탕으로 이끌어가는 리더십을 나타냄. 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 우주에 대해 관심을 토대로 창조의 시작인 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. 실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 큰 역할을 맡음. 조원들의 의견을 수렴하여 공감 능력을 바탕으로 이끌어가는 리더십을 나타냄. 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. 실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
+    <r>
+      <t xml:space="preserve">바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일례로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 그 원리를 알기 위해 전문가의 보고서를 참고하여 탐구하는 모습을 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 과정에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">특히 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">또한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이에 그치지 않고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 원대한 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이처럼 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -874,14 +874,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9">
         <f>(LENB(B2)-LEN(B2))*2+LEN(B2)</f>
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="108.75" thickBot="1">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="132.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -898,14 +898,14 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9">
         <f>(LENB(B4)-LEN(B4))*2+LEN(B4)</f>
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="108.75" thickBot="1">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="132.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종연\Desktop\생기부 유사도 검사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A5169-17F0-4CA1-864B-D7A8BD4983D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F259DB-5CBA-4F36-9781-9842242BD9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,145 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <r>
-      <t xml:space="preserve">바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">일례로 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 큰 역할을 맡음. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이 과정에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">특히 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">또한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이에 그치지 않고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이처럼 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>학생 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,10 +44,6 @@
   </si>
   <si>
     <t>바이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계의 바이올리니스트라는 엄청난 예술적 진로를 가지고 있는 학생으로 실험에 매우 열정적인 몰입 태도를 나타냄. 뉴턴의 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 매우 큰 역할을 맡았을 뿐 아니라 같은 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. 자신의 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 크게 기여함. 어떤 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 또한 귀납적 탐구방법을 학습한 뒤 철쭉 관찰을 통해 실제로 적용하는 모습을 보임. 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 반짝이는 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 이 모든 실험 수업 전반에 걸쳐 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 멋진 학생임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,7 +63,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>바이올리니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 몰입 태도를 보임. 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 큰 역할을 맡음. 조원들의 의견을 수렴하여 공감 능력을 바탕으로 이끌어가는 리더십을 나타냄. 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. 우주에 대해 관심을 토대로 창조의 시작인 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. 실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
+    <t>세계의 첼리스트라는 엄청난 예술적 진로를 가지고 있는 학생으로 실험에 매우 열정적인 몰입 태도를 나타냄. 뉴턴의 프리즘을 통한 빛의 분산 탐구를 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 매우 큰 역할을 맡았을 뿐 아니라 같은 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. 자신의 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 크게 기여함. 어떤 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 실험 목적과 과정을 검토하는 모습을 보임. 또한 귀납적 탐구방법을 학습한 뒤 철쭉 관찰을 통해 실제로 적용하는 모습을 보임. 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 반짝이는 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 이 모든 실험 수업 전반에 걸쳐 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 멋진 학생임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -230,6 +87,149 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t xml:space="preserve">프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 예술성을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 큰 역할을 맡음. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 과정에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 조원들의 의견을 경청하고 공감 능력을 바탕으로 원활한 협력 분위기를 형성함. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">특히 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">또한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하는 모습을 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이에 그치지 않고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 우주에 대해 관심을 토대로 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">항상 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실험 수업에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첼리스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 몰입하는 태도를 보임. 프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 원리를 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 관찰하는데 큰 역할을 맡음. 조원들의 의견을 수렴하여 공감 능력을 바탕으로 이끌어가는 리더십을 나타냄. 맡은 실험 소임을 책임감 있게 수행하며 전체 실험 과정의 정확성과 완성도를 높이는 데 기여함. 실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 스스로 실험 목적을 검토하는 모습을 보임. 우주에 대해 관심을 토대로 창조의 시작인 빛이 우주 탐사의 핵심 요소라는 점에 주목하여 천체 관측에 대해 추가 탐구하는 모습을 나타냄. 수업 전후 관련 개념을 스스로 정리하고 수업 흐름을 이해하는 데 필요한 배경 지식을 찾아보는 등 적극적인 학습 태도를 보여줌. 실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 가지고 있는 학생임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">피아니스트라는 예술적 진로를 가지고 있는 학생으로 실험에 대한 열정적인 태도를 보임. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일례로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">프리즘을 통한 빛의 분산 실험을 연역적 탐구방법으로 수행함에 있어 빛의 성질을 감각적으로 받아들이는 섬세함을 나타냄. 슬릿과 프리즘을 이용하여 빛을 분리하고 그 원리를 알기 위해 전문가의 보고서를 참고하여 탐구하는 모습을 보임. </t>
     </r>
     <r>
@@ -287,7 +287,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적으로 실험 목적과 과정을 검토하는 모습을 보임. </t>
+      <t xml:space="preserve">실험 중 발생하는 변수에 당황하지 않고 끈기 있게 해결 방안을 찾으려 노력하며 자기주도적인 모습을 보임. </t>
     </r>
     <r>
       <rPr>
@@ -344,7 +344,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 갖춘 학생임.</t>
+      <t>실험 수업 전반에 걸쳐 성실성과 집중력이 높고 탐구 활동의 완성도를 높일 수 있는 능력을 겸비한 학생임.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -847,7 +847,7 @@
   </sheetPr>
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -860,61 +860,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="132.75" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9">
         <f>(LENB(B2)-LEN(B2))*2+LEN(B2)</f>
-        <v>1444</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="132.75" thickBot="1">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9">
         <f>(LENB(B3)-LEN(B3))*2+LEN(B3)</f>
-        <v>1459</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="120.75" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9">
         <f>(LENB(B4)-LEN(B4))*2+LEN(B4)</f>
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="132.75" thickBot="1">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120.75" thickBot="1">
       <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="C5" s="9">
         <f>(LENB(B5)-LEN(B5))*2+LEN(B5)</f>
-        <v>1377</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1">
